--- a/data/DOUGLAS_diets.xlsx
+++ b/data/DOUGLAS_diets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmasurel/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Pasteur-Cnam/Stage MS - ENS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmasurel/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Pasteur-Cnam/Stage MS - ENS/DOUGLAS/DOUGLAS_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864C9FB7-820E-8348-BA05-F4E46E6654CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6DCE23-2514-7448-A342-437DCB5432BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EA28026E-3DB4-1645-8B36-E338F1CE64FC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{EA28026E-3DB4-1645-8B36-E338F1CE64FC}"/>
   </bookViews>
   <sheets>
     <sheet name="DOUGLAS" sheetId="2" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,16 +640,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>90.166121400000009</v>
+        <v>87.83663390000001</v>
       </c>
       <c r="C2" s="3">
-        <v>35.100892999999999</v>
+        <v>34.2489518</v>
       </c>
       <c r="D2" s="3">
-        <v>12.082429599999999</v>
+        <v>11.787949999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0384039999999999E-2</v>
+        <v>9.9893949999999981E-3</v>
       </c>
       <c r="F2" s="3">
         <v>3.6067499999999997E-3</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>47.772292830972518</v>
+        <v>47.627640860480724</v>
       </c>
       <c r="I2" s="3">
-        <v>19.539364274362377</v>
+        <v>19.476625450873055</v>
       </c>
       <c r="J2" s="3">
-        <v>8.0307286447478941</v>
+        <v>7.7869209633848371</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -676,25 +676,25 @@
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>86.177026052939084</v>
+        <v>82.254047241740423</v>
       </c>
       <c r="O2" s="3">
-        <v>55.799415072713913</v>
+        <v>54.56944308454112</v>
       </c>
       <c r="P2" s="3">
-        <v>17.711079417553755</v>
+        <v>17.443641025171807</v>
       </c>
       <c r="Q2" s="3">
-        <v>29.794786658968405</v>
+        <v>29.283481656484255</v>
       </c>
       <c r="R2" s="3">
-        <v>41.771437374619687</v>
+        <v>41.130931937110525</v>
       </c>
       <c r="S2" s="3">
-        <v>55.799415072713913</v>
+        <v>54.56944308454112</v>
       </c>
       <c r="T2" s="3">
-        <v>52.603432013402966</v>
+        <v>51.516862911715478</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -764,16 +764,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>35.484352100000002</v>
+        <v>37.813839600000001</v>
       </c>
       <c r="C4" s="3">
-        <v>17.232893000000001</v>
+        <v>18.0848342</v>
       </c>
       <c r="D4" s="3">
-        <v>7.9966241</v>
+        <v>8.291103699999999</v>
       </c>
       <c r="E4" s="3">
-        <v>2.6416599999999998E-2</v>
+        <v>2.6811244999999997E-2</v>
       </c>
       <c r="F4" s="3">
         <v>6.4484E-3</v>
@@ -782,13 +782,13 @@
         <v>1.9344E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>44.112708852346863</v>
+        <v>44.257360822838656</v>
       </c>
       <c r="I4" s="3">
-        <v>19.834668867800438</v>
+        <v>19.897407691289757</v>
       </c>
       <c r="J4" s="3">
-        <v>8.7712152022367604</v>
+        <v>9.0150228835998174</v>
       </c>
       <c r="K4" s="3">
         <v>1.4972584781736843E-2</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>28.630321572278469</v>
+        <v>32.553300383477129</v>
       </c>
       <c r="O4" s="3">
-        <v>27.737749573781926</v>
+        <v>28.967721561954715</v>
       </c>
       <c r="P4" s="3">
-        <v>13.911077159108457</v>
+        <v>14.178515551490404</v>
       </c>
       <c r="Q4" s="3">
-        <v>20.029452120428459</v>
+        <v>20.540757122912606</v>
       </c>
       <c r="R4" s="3">
-        <v>27.808661614698039</v>
+        <v>28.449167052207201</v>
       </c>
       <c r="S4" s="3">
-        <v>27.737749573781926</v>
+        <v>28.967721561954715</v>
       </c>
       <c r="T4" s="3">
-        <v>28.036150702999969</v>
+        <v>29.122719804687449</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
@@ -1441,7 +1441,7 @@
         <v>21.42188092948108</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>

--- a/data/DOUGLAS_diets.xlsx
+++ b/data/DOUGLAS_diets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesmasurel/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Pasteur-Cnam/Stage MS - ENS/DOUGLAS/DOUGLAS_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6DCE23-2514-7448-A342-437DCB5432BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3EF97E-3653-FC43-B65A-039E87566549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{EA28026E-3DB4-1645-8B36-E338F1CE64FC}"/>
   </bookViews>
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,13 +165,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,17 +211,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,6 +225,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ListeH" xfId="2" xr:uid="{31D40F54-26C4-334C-A931-ABDF3BB62250}"/>
@@ -560,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,65 +561,65 @@
     <col min="11" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -639,123 +627,123 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>87.83663390000001</v>
-      </c>
-      <c r="C2" s="3">
-        <v>34.2489518</v>
-      </c>
-      <c r="D2" s="3">
-        <v>11.787949999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>9.9893949999999981E-3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.6067499999999997E-3</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="B2" s="6">
+        <v>90.735704800000008</v>
+      </c>
+      <c r="C2" s="6">
+        <v>35.509337500000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12.341490399999998</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.1567994999999998E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3.8253409999999999E-3</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <v>47.627640860480724</v>
-      </c>
-      <c r="I2" s="3">
-        <v>19.476625450873055</v>
-      </c>
-      <c r="J2" s="3">
-        <v>7.7869209633848371</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="H2" s="6">
+        <v>57.60916522718108</v>
+      </c>
+      <c r="I2" s="6">
+        <v>23.860337002188153</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8.86889546109653</v>
+      </c>
+      <c r="K2" s="6">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="3">
-        <v>82.254047241740423</v>
-      </c>
-      <c r="O2" s="3">
-        <v>54.56944308454112</v>
-      </c>
-      <c r="P2" s="3">
-        <v>17.443641025171807</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>29.283481656484255</v>
-      </c>
-      <c r="R2" s="3">
-        <v>41.130931937110525</v>
-      </c>
-      <c r="S2" s="3">
-        <v>54.56944308454112</v>
-      </c>
-      <c r="T2" s="3">
-        <v>51.516862911715478</v>
+      <c r="N2" s="6">
+        <v>84.193533924338311</v>
+      </c>
+      <c r="O2" s="6">
+        <v>57.97423953091414</v>
+      </c>
+      <c r="P2" s="6">
+        <v>19.896672481153569</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>32.581156534122172</v>
+      </c>
+      <c r="R2" s="6">
+        <v>45.994368961230535</v>
+      </c>
+      <c r="S2" s="6">
+        <v>57.97423953091414</v>
+      </c>
+      <c r="T2" s="6">
+        <v>55.338674554233592</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>44.106153599999999</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>21.799706100000002</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>10.158814899999999</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>2.2469061999999998E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>4.4066590000000003E-3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>0.13501560052443257</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>6.1463088088822573E-2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>0.43822847236631152</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>2.8821284910000001E-3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>40.839413281735609</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="6">
         <v>24.38420205558462</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="6">
         <v>3.4171233424597562</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="6">
         <v>8.5150061533853734</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="6">
         <v>11.459455215437675</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="6">
         <v>24.38420205558462</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="6">
         <v>21.159623012348177</v>
       </c>
     </row>
@@ -763,185 +751,185 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>37.813839600000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>18.0848342</v>
       </c>
-      <c r="D4" s="3">
-        <v>8.291103699999999</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="6">
+        <v>8.2911037000000007</v>
+      </c>
+      <c r="E4" s="6">
         <v>2.6811244999999997E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>6.4484E-3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>1.9344E-3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>44.257360822838656</v>
       </c>
-      <c r="I4" s="3">
-        <v>19.897407691289757</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="6">
+        <v>19.897407691289761</v>
+      </c>
+      <c r="J4" s="6">
         <v>9.0150228835998174</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>1.4972584781736843E-2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="6">
         <v>32.553300383477129</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="6">
         <v>28.967721561954715</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="6">
         <v>14.178515551490404</v>
       </c>
-      <c r="Q4" s="3">
-        <v>20.540757122912606</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="6">
+        <v>20.540757122912609</v>
+      </c>
+      <c r="R4" s="6">
         <v>28.449167052207201</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="6">
         <v>28.967721561954715</v>
       </c>
-      <c r="T4" s="3">
-        <v>29.122719804687449</v>
+      <c r="T4" s="6">
+        <v>29.122719804687453</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>244.41629759999998</v>
-      </c>
-      <c r="C5" s="3">
-        <v>219.20018399999998</v>
-      </c>
-      <c r="D5" s="3">
-        <v>191.87996869999998</v>
-      </c>
-      <c r="E5" s="3">
-        <v>155.11405500000004</v>
-      </c>
-      <c r="F5" s="3">
-        <v>118.38698849999997</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4.2688501999999993</v>
-      </c>
-      <c r="H5" s="3">
-        <v>114.10338339279063</v>
-      </c>
-      <c r="I5" s="3">
-        <v>59.259011542453024</v>
-      </c>
-      <c r="J5" s="3">
-        <v>36.799316127503594</v>
-      </c>
-      <c r="K5" s="3">
-        <v>22.882886028532898</v>
-      </c>
-      <c r="L5" s="3">
-        <v>10.618112212152463</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4.1742367022178124</v>
-      </c>
-      <c r="N5" s="3">
-        <v>261.50067258534415</v>
-      </c>
-      <c r="O5" s="3">
-        <v>191.68440063974947</v>
-      </c>
-      <c r="P5" s="3">
-        <v>60.273375788787746</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>99.016803643970107</v>
-      </c>
-      <c r="R5" s="3">
-        <v>130.75168784338268</v>
-      </c>
-      <c r="S5" s="3">
-        <v>191.68440063974947</v>
-      </c>
-      <c r="T5" s="3">
-        <v>177.1581080825261</v>
+      <c r="B5" s="6">
+        <v>272.24355920000005</v>
+      </c>
+      <c r="C5" s="6">
+        <v>239.5612529</v>
+      </c>
+      <c r="D5" s="6">
+        <v>211.49165470000005</v>
+      </c>
+      <c r="E5" s="6">
+        <v>181.7824981</v>
+      </c>
+      <c r="F5" s="6">
+        <v>141.9917763</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.8877495999999999E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>133.51388412638437</v>
+      </c>
+      <c r="I5" s="6">
+        <v>115.31664077682187</v>
+      </c>
+      <c r="J5" s="6">
+        <v>98.766796808075142</v>
+      </c>
+      <c r="K5" s="6">
+        <v>73.972894956390306</v>
+      </c>
+      <c r="L5" s="6">
+        <v>63.091043753809537</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2.1821118031250001E-3</v>
+      </c>
+      <c r="N5" s="6">
+        <v>281.05868493218196</v>
+      </c>
+      <c r="O5" s="6">
+        <v>218.61352400290943</v>
+      </c>
+      <c r="P5" s="6">
+        <v>106.67793272326776</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>142.44151770053432</v>
+      </c>
+      <c r="R5" s="6">
+        <v>163.50817628150884</v>
+      </c>
+      <c r="S5" s="6">
+        <v>218.61352400290943</v>
+      </c>
+      <c r="T5" s="6">
+        <v>205.29620633038311</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>51.877074700000001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>43.7083412</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>39.984965700000004</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>48.332980200000002</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>5.4713176999999995E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>9.1659180000000003E-3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>26.107508782090292</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>22.590684098336805</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>20.859352328426716</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>25.621332038433998</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>2.2514391419423074E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>9.3083963499999988E-4</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="6">
         <v>31.619726300409539</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="6">
         <v>41.033352796477971</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="6">
         <v>18.568513121985678</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="6">
         <v>26.625582643259072</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="6">
         <v>30.755423363966749</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="6">
         <v>41.033352796477971</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="6">
         <v>38.694751774434309</v>
       </c>
     </row>
@@ -949,61 +937,61 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>12.402805499999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>10.399225000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>10.535707500000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>15.783614199999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>12.802004799999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>1.8599600000000001E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>25.451936891970746</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>28.571429722952047</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>32.14285714326077</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>39.412370440886079</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>54.945053792051766</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="6">
         <v>10.32320150695522</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="6">
         <v>15.450627126906129</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="6">
         <v>32.032341163623045</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="6">
         <v>26.980645090135734</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="6">
         <v>23.139857745512913</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="6">
         <v>15.450627126906129</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="6">
         <v>17.134674989779384</v>
       </c>
     </row>
@@ -1011,185 +999,185 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>293.9804817000001</v>
-      </c>
-      <c r="C8" s="3">
-        <v>289.05766929999993</v>
-      </c>
-      <c r="D8" s="3">
-        <v>312.45025499999991</v>
-      </c>
-      <c r="E8" s="3">
-        <v>360.11906910000005</v>
-      </c>
-      <c r="F8" s="3">
-        <v>343.24503420000002</v>
-      </c>
-      <c r="G8" s="3">
-        <v>463.4209553</v>
-      </c>
-      <c r="H8" s="3">
-        <v>115.69656688999267</v>
-      </c>
-      <c r="I8" s="3">
-        <v>106.56918857396364</v>
-      </c>
-      <c r="J8" s="3">
-        <v>112.96780705485141</v>
-      </c>
-      <c r="K8" s="3">
-        <v>139.85251356216475</v>
-      </c>
-      <c r="L8" s="3">
-        <v>136.85644259972187</v>
-      </c>
-      <c r="M8" s="3">
-        <v>271.83880121653186</v>
-      </c>
-      <c r="N8" s="3">
-        <v>242.48501261236694</v>
-      </c>
-      <c r="O8" s="3">
-        <v>251.89646098823084</v>
-      </c>
-      <c r="P8" s="3">
-        <v>144.54298904825259</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>162.62331072020487</v>
-      </c>
-      <c r="R8" s="3">
-        <v>179.89982288358954</v>
-      </c>
-      <c r="S8" s="3">
-        <v>251.89646098823084</v>
-      </c>
-      <c r="T8" s="3">
-        <v>233.78262699275416</v>
+      <c r="B8" s="6">
+        <v>304.93060440000005</v>
+      </c>
+      <c r="C8" s="6">
+        <v>299.85022589999994</v>
+      </c>
+      <c r="D8" s="6">
+        <v>315.00782670000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>358.18391290000011</v>
+      </c>
+      <c r="F8" s="6">
+        <v>353.32769239999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>476.2677008</v>
+      </c>
+      <c r="H8" s="6">
+        <v>110.48507844390716</v>
+      </c>
+      <c r="I8" s="6">
+        <v>101.52619590953744</v>
+      </c>
+      <c r="J8" s="6">
+        <v>105.32597216636168</v>
+      </c>
+      <c r="K8" s="6">
+        <v>126.17598518411729</v>
+      </c>
+      <c r="L8" s="6">
+        <v>118.36342817866996</v>
+      </c>
+      <c r="M8" s="6">
+        <v>264.30820731580377</v>
+      </c>
+      <c r="N8" s="6">
+        <v>260.01674715426753</v>
+      </c>
+      <c r="O8" s="6">
+        <v>257.97010240707988</v>
+      </c>
+      <c r="P8" s="6">
+        <v>136.85880194548443</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>159.41467497728058</v>
+      </c>
+      <c r="R8" s="6">
+        <v>179.05445983095552</v>
+      </c>
+      <c r="S8" s="6">
+        <v>257.97010240707988</v>
+      </c>
+      <c r="T8" s="6">
+        <v>238.21959046930064</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>9.0650613999999994</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10.462485900000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15.412381199999999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>24.989204599999997</v>
-      </c>
-      <c r="F9" s="3">
-        <v>28.156703400000001</v>
-      </c>
-      <c r="G9" s="3">
-        <v>35.556093700000005</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.2226461333843073</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10.253832740467402</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20.511628470171665</v>
-      </c>
-      <c r="K9" s="3">
-        <v>22.510934046727041</v>
-      </c>
-      <c r="L9" s="3">
-        <v>25.372428288792847</v>
-      </c>
-      <c r="M9" s="3">
-        <v>14.752456396584392</v>
-      </c>
-      <c r="N9" s="3">
-        <v>5.4341236424702686</v>
-      </c>
-      <c r="O9" s="3">
-        <v>9.8622696937550778</v>
-      </c>
-      <c r="P9" s="3">
-        <v>16.540771151190103</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>13.501076533783454</v>
-      </c>
-      <c r="R9" s="3">
-        <v>9.9160758890656719</v>
-      </c>
-      <c r="S9" s="3">
-        <v>9.8622696937550778</v>
-      </c>
-      <c r="T9" s="3">
-        <v>9.8017879897967592</v>
+      <c r="B9" s="6">
+        <v>7.4949053999999995</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.4222758000000013</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12.499294299999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20.571951899999998</v>
+      </c>
+      <c r="F9" s="6">
+        <v>24.0729085</v>
+      </c>
+      <c r="G9" s="6">
+        <v>31.022980800000003</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.2853532876174583</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4.3278719223583551</v>
+      </c>
+      <c r="J9" s="6">
+        <v>12.369953561040811</v>
+      </c>
+      <c r="K9" s="6">
+        <v>15.560380805329411</v>
+      </c>
+      <c r="L9" s="6">
+        <v>14.806398308381922</v>
+      </c>
+      <c r="M9" s="6">
+        <v>11.241757077028673</v>
+      </c>
+      <c r="N9" s="6">
+        <v>4.8086299664973833</v>
+      </c>
+      <c r="O9" s="6">
+        <v>7.4675874324132323</v>
+      </c>
+      <c r="P9" s="6">
+        <v>9.8382355089531472</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>8.1891650540424568</v>
+      </c>
+      <c r="R9" s="6">
+        <v>6.2822924253048118</v>
+      </c>
+      <c r="S9" s="6">
+        <v>7.4675874324132323</v>
+      </c>
+      <c r="T9" s="6">
+        <v>7.1513380679324108</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>365.34374689999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>332.09061479999991</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>363.44477510000007</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>483.49091130000005</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>461.76912400000003</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>544.29186790000006</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <v>275.80794128534706</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>334.21811937314698</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <v>377.66501886038446</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <v>454.41071403671742</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="6">
         <v>509.91636392011952</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="6">
         <v>266.67673382226172</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <v>274.24724666112502</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="6">
         <v>346.54862506654183</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="6">
         <v>379.9932193857037</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="6">
         <v>360.14176131159746</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="6">
         <v>337.20291948177191</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="6">
         <v>346.54862506654183</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="6">
         <v>342.52475585241189</v>
       </c>
     </row>
@@ -1197,61 +1185,61 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>14.980126200000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>12.6833417</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>17.768902400000002</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>41.0120741</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>52.0043334</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>87.294714200000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>47.171181017889474</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>42.857142857142996</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>73.295454545454589</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>176.11383156686853</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>186.65974961662516</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>8.592801367812501E-11</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="6">
         <v>10.6348057166639</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="6">
         <v>24.511712414121202</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="6">
         <v>81.315532701096188</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="6">
         <v>58.276377175049412</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="6">
         <v>45.616424690739322</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="6">
         <v>24.511712414121202</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="6">
         <v>28.85498396166059</v>
       </c>
     </row>
@@ -1259,248 +1247,248 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>50.104503699999995</v>
-      </c>
-      <c r="C12" s="3">
-        <v>56.204771900000004</v>
-      </c>
-      <c r="D12" s="3">
-        <v>69.175660199999996</v>
-      </c>
-      <c r="E12" s="3">
-        <v>84.206708300000003</v>
-      </c>
-      <c r="F12" s="3">
-        <v>78.424880999999999</v>
-      </c>
-      <c r="G12" s="3">
-        <v>92.005873800000003</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3.3530407302640111</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2.2715625350124031</v>
-      </c>
-      <c r="J12" s="3">
-        <v>37.948025634699462</v>
-      </c>
-      <c r="K12" s="3">
-        <v>67.22027163273421</v>
-      </c>
-      <c r="L12" s="3">
-        <v>44.098582686134236</v>
-      </c>
-      <c r="M12" s="3">
-        <v>74.927652462214809</v>
-      </c>
-      <c r="N12" s="3">
-        <v>24.654231892142278</v>
-      </c>
-      <c r="O12" s="3">
-        <v>42.605503690644369</v>
-      </c>
-      <c r="P12" s="3">
-        <v>33.242431047738776</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>29.73806948449046</v>
-      </c>
-      <c r="R12" s="3">
-        <v>27.187810628352302</v>
-      </c>
-      <c r="S12" s="3">
-        <v>42.605503690644369</v>
-      </c>
-      <c r="T12" s="3">
-        <v>38.853525206991165</v>
+      <c r="B12" s="6">
+        <v>57.845039399999997</v>
+      </c>
+      <c r="C12" s="6">
+        <v>63.846956800000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>79.854037300000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>106.63677560000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>105.452815</v>
+      </c>
+      <c r="G12" s="6">
+        <v>126.4274947</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.0031334273451957</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.431050015846258</v>
+      </c>
+      <c r="J12" s="6">
+        <v>39.831124116105059</v>
+      </c>
+      <c r="K12" s="6">
+        <v>70.939051988416523</v>
+      </c>
+      <c r="L12" s="6">
+        <v>50.10890301025708</v>
+      </c>
+      <c r="M12" s="6">
+        <v>93.937205963143484</v>
+      </c>
+      <c r="N12" s="6">
+        <v>27.749191880035433</v>
+      </c>
+      <c r="O12" s="6">
+        <v>49.50200354712188</v>
+      </c>
+      <c r="P12" s="6">
+        <v>37.394406905395968</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>33.556813436939755</v>
+      </c>
+      <c r="R12" s="6">
+        <v>31.30059732480186</v>
+      </c>
+      <c r="S12" s="6">
+        <v>49.50200354712188</v>
+      </c>
+      <c r="T12" s="6">
+        <v>45.011850494279692</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>158.2371243</v>
-      </c>
-      <c r="C13" s="3">
-        <v>127.19512240000002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>109.05477429999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>124.5228451</v>
-      </c>
-      <c r="F13" s="3">
-        <v>151.01123530000001</v>
-      </c>
-      <c r="G13" s="3">
-        <v>161.85510159999998</v>
-      </c>
-      <c r="H13" s="3">
-        <v>150.69435258014261</v>
-      </c>
-      <c r="I13" s="3">
-        <v>188.92088514548954</v>
-      </c>
-      <c r="J13" s="3">
-        <v>154.85656164853614</v>
-      </c>
-      <c r="K13" s="3">
-        <v>63.367321934868706</v>
-      </c>
-      <c r="L13" s="3">
-        <v>149.33717531002361</v>
-      </c>
-      <c r="M13" s="3">
-        <v>136.43750837426037</v>
-      </c>
-      <c r="N13" s="3">
-        <v>177.47408865634861</v>
-      </c>
-      <c r="O13" s="3">
-        <v>149.04335045917847</v>
-      </c>
-      <c r="P13" s="3">
-        <v>155.94670560818707</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>158.51322213830403</v>
-      </c>
-      <c r="R13" s="3">
-        <v>154.43881726589416</v>
-      </c>
-      <c r="S13" s="3">
-        <v>149.04335045917847</v>
-      </c>
-      <c r="T13" s="3">
-        <v>149.91994814045651</v>
+      <c r="B13" s="6">
+        <v>138.96412240000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>108.78825639999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>86.585866199999984</v>
+      </c>
+      <c r="E13" s="6">
+        <v>84.004377199999993</v>
+      </c>
+      <c r="F13" s="6">
+        <v>101.8122192</v>
+      </c>
+      <c r="G13" s="6">
+        <v>107.31698919999998</v>
+      </c>
+      <c r="H13" s="6">
+        <v>146.01990846875213</v>
+      </c>
+      <c r="I13" s="6">
+        <v>178.83996749679437</v>
+      </c>
+      <c r="J13" s="6">
+        <v>144.43387648977412</v>
+      </c>
+      <c r="K13" s="6">
+        <v>48.720119221638498</v>
+      </c>
+      <c r="L13" s="6">
+        <v>125.30147281126358</v>
+      </c>
+      <c r="M13" s="6">
+        <v>84.66269550717044</v>
+      </c>
+      <c r="N13" s="6">
+        <v>157.38757958710528</v>
+      </c>
+      <c r="O13" s="6">
+        <v>131.72933978261295</v>
+      </c>
+      <c r="P13" s="6">
+        <v>139.87752185268246</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>144.82098835259342</v>
+      </c>
+      <c r="R13" s="6">
+        <v>141.4417887854872</v>
+      </c>
+      <c r="S13" s="6">
+        <v>131.72933978261295</v>
+      </c>
+      <c r="T13" s="6">
+        <v>133.87038699361244</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>20.068338100000002</v>
-      </c>
-      <c r="C14" s="3">
-        <v>18.8666558</v>
-      </c>
-      <c r="D14" s="3">
-        <v>19.668689199999999</v>
-      </c>
-      <c r="E14" s="3">
-        <v>22.957089099999997</v>
-      </c>
-      <c r="F14" s="3">
-        <v>22.579102699999996</v>
-      </c>
-      <c r="G14" s="3">
-        <v>26.4332569</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="B14" s="6">
+        <v>20.042605700000003</v>
+      </c>
+      <c r="C14" s="6">
+        <v>18.841124300000001</v>
+      </c>
+      <c r="D14" s="6">
+        <v>19.5711628</v>
+      </c>
+      <c r="E14" s="6">
+        <v>22.786907799999998</v>
+      </c>
+      <c r="F14" s="6">
+        <v>22.206972599999997</v>
+      </c>
+      <c r="G14" s="6">
+        <v>25.872003599999999</v>
+      </c>
+      <c r="H14" s="6">
         <v>23.904187151027287</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>25.572157261580006</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>22.10017902441983</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <v>26.956764909749825</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="6">
         <v>34.95432349260161</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="6">
         <v>17.192044818210178</v>
       </c>
-      <c r="N14" s="3">
-        <v>13.120539460610916</v>
-      </c>
-      <c r="O14" s="3">
-        <v>21.051753643558349</v>
-      </c>
-      <c r="P14" s="3">
-        <v>25.281720215823615</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>23.812067707104546</v>
-      </c>
-      <c r="R14" s="3">
-        <v>23.159150058951145</v>
-      </c>
-      <c r="S14" s="3">
-        <v>21.051753643558349</v>
-      </c>
-      <c r="T14" s="3">
-        <v>21.42188092948108</v>
+      <c r="N14" s="6">
+        <v>13.116939923722736</v>
+      </c>
+      <c r="O14" s="6">
+        <v>21.016817750308348</v>
+      </c>
+      <c r="P14" s="6">
+        <v>25.278537791523615</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>23.800275734674546</v>
+      </c>
+      <c r="R14" s="6">
+        <v>23.142846642101144</v>
+      </c>
+      <c r="S14" s="6">
+        <v>21.016817750308348</v>
+      </c>
+      <c r="T14" s="6">
+        <v>21.391603155331079</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>138.9624196</v>
-      </c>
-      <c r="C15" s="3">
-        <v>119.94810129999999</v>
-      </c>
-      <c r="D15" s="3">
-        <v>104.4860353</v>
-      </c>
-      <c r="E15" s="3">
-        <v>117.05157419999999</v>
-      </c>
-      <c r="F15" s="3">
-        <v>145.4275639</v>
-      </c>
-      <c r="G15" s="3">
-        <v>159.97993329999997</v>
-      </c>
-      <c r="H15" s="3">
-        <v>170.75761202084266</v>
-      </c>
-      <c r="I15" s="3">
-        <v>135.77042512645551</v>
-      </c>
-      <c r="J15" s="3">
-        <v>117.6594270941341</v>
-      </c>
-      <c r="K15" s="3">
-        <v>133.30937690212679</v>
-      </c>
-      <c r="L15" s="3">
-        <v>112.84720934619794</v>
-      </c>
-      <c r="M15" s="3">
-        <v>94.867545650257867</v>
-      </c>
-      <c r="N15" s="3">
-        <v>162.25459652838899</v>
-      </c>
-      <c r="O15" s="3">
-        <v>136.29600333991146</v>
-      </c>
-      <c r="P15" s="3">
-        <v>125.7200861970507</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>132.38312722887318</v>
-      </c>
-      <c r="R15" s="3">
-        <v>142.36469318533867</v>
-      </c>
-      <c r="S15" s="3">
-        <v>136.29600333991146</v>
-      </c>
-      <c r="T15" s="3">
-        <v>138.13212037194478</v>
+      <c r="B15" s="6">
+        <v>93.864673999999994</v>
+      </c>
+      <c r="C15" s="6">
+        <v>77.844128399999988</v>
+      </c>
+      <c r="D15" s="6">
+        <v>69.341502399999996</v>
+      </c>
+      <c r="E15" s="6">
+        <v>81.550623099999996</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100.40479930000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>111.19440610000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>165.08445083580455</v>
+      </c>
+      <c r="I15" s="6">
+        <v>134.40995044633556</v>
+      </c>
+      <c r="J15" s="6">
+        <v>116.02448087542251</v>
+      </c>
+      <c r="K15" s="6">
+        <v>126.92298465110426</v>
+      </c>
+      <c r="L15" s="6">
+        <v>109.60643959537754</v>
+      </c>
+      <c r="M15" s="6">
+        <v>73.696489014087192</v>
+      </c>
+      <c r="N15" s="6">
+        <v>118.8619054902349</v>
+      </c>
+      <c r="O15" s="6">
+        <v>102.88960374525973</v>
+      </c>
+      <c r="P15" s="6">
+        <v>118.12927757243061</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>119.27659955648764</v>
+      </c>
+      <c r="R15" s="6">
+        <v>124.66156811059143</v>
+      </c>
+      <c r="S15" s="6">
+        <v>102.88960374525973</v>
+      </c>
+      <c r="T15" s="6">
+        <v>108.62301063478166</v>
       </c>
     </row>
   </sheetData>
